--- a/recommendation&keyword search/attraction.xlsx
+++ b/recommendation&keyword search/attraction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\麦佩华\CS5224 Cloud Computing\Assignments\final project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AD91C3-CB3B-4270-A525-E0D63B43C4C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89779742-DAAB-458D-A14B-FE9A036AB3C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3266" uniqueCount="2007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3266" uniqueCount="2010">
   <si>
     <t>uuid</t>
   </si>
@@ -5241,9 +5241,6 @@
     <t xml:space="preserve">Singapore's First and Largest VR Theme Park ! </t>
   </si>
   <si>
-    <t>Beat the heat and hop on exhilarating rides  at one of the largest water parks in Singapore, Wild Wild Wet.</t>
-  </si>
-  <si>
     <t>Board the Skyride for a scenic bird’s eye view of Sentosa island and Singapore’s skyline.</t>
   </si>
   <si>
@@ -5280,9 +5277,6 @@
     <t>Let your toddler slip in among puffs of cloud and hide away in gentle bowls of mist. Kids will love the chance to play in this dreamy setting and let their imagination take flight.</t>
   </si>
   <si>
-    <t>Suspended across a void, this is one walk you won't forget. A taut web 25 metres above ground affords an indescribable sensation of lightness.</t>
-  </si>
-  <si>
     <t>Experience the thrill of being weightless as you leap about a giant net that stretches 250 metres long above the Canopy Park.</t>
   </si>
   <si>
@@ -5326,9 +5320,6 @@
   </si>
   <si>
     <t>Skyline Luge Sentosa is the first-ever fun-filled gravity thrill ride introduced in Southeast Asia that’s safe for all ages, now with two thrilling new luge tracks and a brand new Skyride, offering multiple unique experiences not to be missed!</t>
-  </si>
-  <si>
-    <t>With its abundant wildlife and lush greenery, Pulau Ubin is a haven for nature lovers.</t>
   </si>
   <si>
     <t>Snow City offers a taste of winter in the tropical city with a sub-zero environment covered with 150 tons of powdery white snow.</t>
@@ -6002,9 +5993,6 @@
     <t>Hidden oasis of tranquility and peace</t>
   </si>
   <si>
-    <t>A Different type of Wildlife</t>
-  </si>
-  <si>
     <t>Enter and explore the marine realm of S.E.A. Aquarium, home to more than 100,000 marine animals of over 1,000 species, across 50 different habitats, each one as fascinating as the next. It's a marine life experience you won’t forget.</t>
   </si>
   <si>
@@ -6091,6 +6079,34 @@
   </si>
   <si>
     <t>Average Stay Time (h)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nature &amp; Wildlife</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leisure &amp; Recreation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adventure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>With its abundant wildlife and lush greenery, Pulau Ubin is a haven for nature lovers.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suspended across a void, this is one walk you won't forget. A taut web 25 metres above ground affords an indescribable sensation of lightness.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Different type of Wildlife</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beat the heat and hop on exhilarating rides  at one of the largest water parks in Singapore, Wild Wild Wet.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6517,7 +6533,7 @@
   <dimension ref="A1:M387"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6563,7 +6579,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>2006</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -10049,10 +10065,10 @@
         <v>102</v>
       </c>
       <c r="K103" t="s">
-        <v>1625</v>
+        <v>2005</v>
       </c>
       <c r="L103" t="s">
-        <v>1726</v>
+        <v>2009</v>
       </c>
       <c r="M103">
         <v>2</v>
@@ -10084,7 +10100,7 @@
         <v>1625</v>
       </c>
       <c r="L104" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="M104">
         <v>2</v>
@@ -10125,7 +10141,7 @@
         <v>1625</v>
       </c>
       <c r="L105" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="M105">
         <v>2</v>
@@ -10157,7 +10173,7 @@
         <v>1625</v>
       </c>
       <c r="L106" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="M106">
         <v>2</v>
@@ -10189,7 +10205,7 @@
         <v>1623</v>
       </c>
       <c r="L107" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="M107">
         <v>2</v>
@@ -10230,7 +10246,7 @@
         <v>1624</v>
       </c>
       <c r="L108" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="M108">
         <v>3</v>
@@ -10271,7 +10287,7 @@
         <v>1626</v>
       </c>
       <c r="L109" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="M109">
         <v>2.5</v>
@@ -10312,7 +10328,7 @@
         <v>1626</v>
       </c>
       <c r="L110" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="M110">
         <v>2.5</v>
@@ -10353,7 +10369,7 @@
         <v>1625</v>
       </c>
       <c r="L111" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="M111">
         <v>2</v>
@@ -10394,7 +10410,7 @@
         <v>1625</v>
       </c>
       <c r="L112" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="M112">
         <v>2</v>
@@ -10426,7 +10442,7 @@
         <v>1622</v>
       </c>
       <c r="L113" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="M113">
         <v>1.5</v>
@@ -10458,7 +10474,7 @@
         <v>1622</v>
       </c>
       <c r="L114" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="M114">
         <v>1.5</v>
@@ -10490,7 +10506,7 @@
         <v>1622</v>
       </c>
       <c r="L115" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="M115">
         <v>1.5</v>
@@ -10519,10 +10535,10 @@
         <v>1284</v>
       </c>
       <c r="K116" t="s">
-        <v>1622</v>
+        <v>2004</v>
       </c>
       <c r="L116" t="s">
-        <v>1739</v>
+        <v>2007</v>
       </c>
       <c r="M116">
         <v>1.5</v>
@@ -10554,7 +10570,7 @@
         <v>1622</v>
       </c>
       <c r="L117" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="M117">
         <v>1.5</v>
@@ -10586,7 +10602,7 @@
         <v>1622</v>
       </c>
       <c r="L118" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="M118">
         <v>1.5</v>
@@ -10618,7 +10634,7 @@
         <v>1622</v>
       </c>
       <c r="L119" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="M119">
         <v>1.5</v>
@@ -10650,7 +10666,7 @@
         <v>1623</v>
       </c>
       <c r="L120" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="M120">
         <v>2</v>
@@ -10682,7 +10698,7 @@
         <v>1624</v>
       </c>
       <c r="L121" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="M121">
         <v>3</v>
@@ -10723,7 +10739,7 @@
         <v>1625</v>
       </c>
       <c r="L122" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="M122">
         <v>2</v>
@@ -10755,7 +10771,7 @@
         <v>1625</v>
       </c>
       <c r="L123" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="M123">
         <v>2</v>
@@ -10796,7 +10812,7 @@
         <v>1623</v>
       </c>
       <c r="L124" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="M124">
         <v>2</v>
@@ -10837,7 +10853,7 @@
         <v>1625</v>
       </c>
       <c r="L125" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="M125">
         <v>2</v>
@@ -10878,7 +10894,7 @@
         <v>1622</v>
       </c>
       <c r="L126" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="M126">
         <v>1.5</v>
@@ -10919,7 +10935,7 @@
         <v>1623</v>
       </c>
       <c r="L127" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="M127">
         <v>2</v>
@@ -10960,7 +10976,7 @@
         <v>1623</v>
       </c>
       <c r="L128" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="M128">
         <v>2</v>
@@ -10992,7 +11008,7 @@
         <v>1624</v>
       </c>
       <c r="L129" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="M129">
         <v>3</v>
@@ -11024,7 +11040,7 @@
         <v>1623</v>
       </c>
       <c r="L130" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="M130">
         <v>2</v>
@@ -11065,7 +11081,7 @@
         <v>1625</v>
       </c>
       <c r="L131" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="M131">
         <v>2</v>
@@ -11103,10 +11119,10 @@
         <v>3</v>
       </c>
       <c r="K132" t="s">
-        <v>1626</v>
+        <v>2003</v>
       </c>
       <c r="L132" t="s">
-        <v>1755</v>
+        <v>2006</v>
       </c>
       <c r="M132">
         <v>2.5</v>
@@ -11147,7 +11163,7 @@
         <v>1622</v>
       </c>
       <c r="L133" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="M133">
         <v>1.5</v>
@@ -11179,7 +11195,7 @@
         <v>1622</v>
       </c>
       <c r="L134" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="M134">
         <v>1.5</v>
@@ -11220,7 +11236,7 @@
         <v>1622</v>
       </c>
       <c r="L135" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="M135">
         <v>1.5</v>
@@ -11261,7 +11277,7 @@
         <v>1623</v>
       </c>
       <c r="L136" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="M136">
         <v>2</v>
@@ -11302,7 +11318,7 @@
         <v>1623</v>
       </c>
       <c r="L137" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="M137">
         <v>2</v>
@@ -11334,7 +11350,7 @@
         <v>1623</v>
       </c>
       <c r="L138" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="M138">
         <v>2</v>
@@ -11366,7 +11382,7 @@
         <v>1623</v>
       </c>
       <c r="L139" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="M139">
         <v>2</v>
@@ -11398,7 +11414,7 @@
         <v>1623</v>
       </c>
       <c r="L140" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="M140">
         <v>2</v>
@@ -11430,7 +11446,7 @@
         <v>1623</v>
       </c>
       <c r="L141" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="M141">
         <v>2</v>
@@ -11462,7 +11478,7 @@
         <v>1623</v>
       </c>
       <c r="L142" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="M142">
         <v>2</v>
@@ -11491,7 +11507,7 @@
         <v>1624</v>
       </c>
       <c r="L143" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="M143">
         <v>3</v>
@@ -11523,7 +11539,7 @@
         <v>1621</v>
       </c>
       <c r="L144" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="M144">
         <v>1</v>
@@ -11555,7 +11571,7 @@
         <v>1623</v>
       </c>
       <c r="L145" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="M145">
         <v>2</v>
@@ -11596,7 +11612,7 @@
         <v>1623</v>
       </c>
       <c r="L146" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="M146">
         <v>2</v>
@@ -11628,7 +11644,7 @@
         <v>1623</v>
       </c>
       <c r="L147" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="M147">
         <v>2</v>
@@ -11669,7 +11685,7 @@
         <v>1622</v>
       </c>
       <c r="L148" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="M148">
         <v>1.5</v>
@@ -11710,7 +11726,7 @@
         <v>1626</v>
       </c>
       <c r="L149" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="M149">
         <v>2.5</v>
@@ -11751,7 +11767,7 @@
         <v>1626</v>
       </c>
       <c r="L150" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="M150">
         <v>2.5</v>
@@ -11792,7 +11808,7 @@
         <v>1626</v>
       </c>
       <c r="L151" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="M151">
         <v>2.5</v>
@@ -11833,7 +11849,7 @@
         <v>1626</v>
       </c>
       <c r="L152" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="M152">
         <v>2.5</v>
@@ -11874,7 +11890,7 @@
         <v>1622</v>
       </c>
       <c r="L153" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="M153">
         <v>1.5</v>
@@ -11915,7 +11931,7 @@
         <v>1622</v>
       </c>
       <c r="L154" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="M154">
         <v>1.5</v>
@@ -11950,7 +11966,7 @@
         <v>1621</v>
       </c>
       <c r="L155" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="M155">
         <v>1</v>
@@ -11985,7 +12001,7 @@
         <v>1621</v>
       </c>
       <c r="L156" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="M156">
         <v>1</v>
@@ -12017,7 +12033,7 @@
         <v>1622</v>
       </c>
       <c r="L157" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="M157">
         <v>1.5</v>
@@ -12049,7 +12065,7 @@
         <v>1622</v>
       </c>
       <c r="L158" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="M158">
         <v>1.5</v>
@@ -12090,7 +12106,7 @@
         <v>1623</v>
       </c>
       <c r="L159" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="M159">
         <v>2</v>
@@ -12131,7 +12147,7 @@
         <v>1621</v>
       </c>
       <c r="L160" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="M160">
         <v>1</v>
@@ -12163,7 +12179,7 @@
         <v>1625</v>
       </c>
       <c r="L161" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="M161">
         <v>2</v>
@@ -12195,7 +12211,7 @@
         <v>1626</v>
       </c>
       <c r="L162" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="M162">
         <v>2.5</v>
@@ -12227,7 +12243,7 @@
         <v>1624</v>
       </c>
       <c r="L163" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="M163">
         <v>3</v>
@@ -12259,7 +12275,7 @@
         <v>1623</v>
       </c>
       <c r="L164" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="M164">
         <v>2</v>
@@ -12291,7 +12307,7 @@
         <v>1623</v>
       </c>
       <c r="L165" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="M165">
         <v>2</v>
@@ -12332,7 +12348,7 @@
         <v>1623</v>
       </c>
       <c r="L166" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="M166">
         <v>2</v>
@@ -12364,7 +12380,7 @@
         <v>1624</v>
       </c>
       <c r="L167" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="M167">
         <v>3</v>
@@ -12405,7 +12421,7 @@
         <v>1623</v>
       </c>
       <c r="L168" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="M168">
         <v>2</v>
@@ -12446,7 +12462,7 @@
         <v>1622</v>
       </c>
       <c r="L169" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="M169">
         <v>1.5</v>
@@ -12487,7 +12503,7 @@
         <v>1624</v>
       </c>
       <c r="L170" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="M170">
         <v>3</v>
@@ -12519,7 +12535,7 @@
         <v>1623</v>
       </c>
       <c r="L171" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="M171">
         <v>2</v>
@@ -12560,7 +12576,7 @@
         <v>1623</v>
       </c>
       <c r="L172" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="M172">
         <v>2</v>
@@ -12592,7 +12608,7 @@
         <v>1623</v>
       </c>
       <c r="L173" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="M173">
         <v>2</v>
@@ -12624,7 +12640,7 @@
         <v>1623</v>
       </c>
       <c r="L174" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="M174">
         <v>2</v>
@@ -12656,7 +12672,7 @@
         <v>1623</v>
       </c>
       <c r="L175" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="M175">
         <v>2</v>
@@ -12688,7 +12704,7 @@
         <v>1623</v>
       </c>
       <c r="L176" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="M176">
         <v>2</v>
@@ -12720,7 +12736,7 @@
         <v>1622</v>
       </c>
       <c r="L177" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="M177">
         <v>1.5</v>
@@ -12752,7 +12768,7 @@
         <v>1623</v>
       </c>
       <c r="L178" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="M178">
         <v>2</v>
@@ -12784,7 +12800,7 @@
         <v>1623</v>
       </c>
       <c r="L179" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="M179">
         <v>2</v>
@@ -12816,7 +12832,7 @@
         <v>1623</v>
       </c>
       <c r="L180" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="M180">
         <v>2</v>
@@ -12848,7 +12864,7 @@
         <v>1623</v>
       </c>
       <c r="L181" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="M181">
         <v>2</v>
@@ -12880,7 +12896,7 @@
         <v>1623</v>
       </c>
       <c r="L182" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="M182">
         <v>2</v>
@@ -12921,7 +12937,7 @@
         <v>1623</v>
       </c>
       <c r="L183" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="M183">
         <v>2</v>
@@ -12953,7 +12969,7 @@
         <v>1621</v>
       </c>
       <c r="L184" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="M184">
         <v>1</v>
@@ -12985,7 +13001,7 @@
         <v>1622</v>
       </c>
       <c r="L185" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="M185">
         <v>1.5</v>
@@ -13026,7 +13042,7 @@
         <v>1621</v>
       </c>
       <c r="L186" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="M186">
         <v>1</v>
@@ -13067,7 +13083,7 @@
         <v>1622</v>
       </c>
       <c r="L187" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="M187">
         <v>1.5</v>
@@ -13108,7 +13124,7 @@
         <v>1621</v>
       </c>
       <c r="L188" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="M188">
         <v>1</v>
@@ -13149,7 +13165,7 @@
         <v>1626</v>
       </c>
       <c r="L189" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="M189">
         <v>2.5</v>
@@ -13181,7 +13197,7 @@
         <v>1622</v>
       </c>
       <c r="L190" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="M190">
         <v>1.5</v>
@@ -13222,7 +13238,7 @@
         <v>1622</v>
       </c>
       <c r="L191" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="M191">
         <v>1.5</v>
@@ -13254,7 +13270,7 @@
         <v>1622</v>
       </c>
       <c r="L192" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="M192">
         <v>1.5</v>
@@ -13295,7 +13311,7 @@
         <v>1622</v>
       </c>
       <c r="L193" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="M193">
         <v>1.5</v>
@@ -13327,7 +13343,7 @@
         <v>1622</v>
       </c>
       <c r="L194" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="M194">
         <v>1.5</v>
@@ -13359,7 +13375,7 @@
         <v>1622</v>
       </c>
       <c r="L195" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="M195">
         <v>1.5</v>
@@ -13391,7 +13407,7 @@
         <v>1622</v>
       </c>
       <c r="L196" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="M196">
         <v>1.5</v>
@@ -13423,7 +13439,7 @@
         <v>1622</v>
       </c>
       <c r="L197" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="M197">
         <v>1.5</v>
@@ -13464,7 +13480,7 @@
         <v>1622</v>
       </c>
       <c r="L198" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="M198">
         <v>1.5</v>
@@ -13505,7 +13521,7 @@
         <v>1625</v>
       </c>
       <c r="L199" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="M199">
         <v>2</v>
@@ -13546,7 +13562,7 @@
         <v>1626</v>
       </c>
       <c r="L200" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="M200">
         <v>2.5</v>
@@ -13578,7 +13594,7 @@
         <v>1622</v>
       </c>
       <c r="L201" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="M201">
         <v>1.5</v>
@@ -13610,7 +13626,7 @@
         <v>1621</v>
       </c>
       <c r="L202" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="M202">
         <v>1</v>
@@ -13651,7 +13667,7 @@
         <v>1622</v>
       </c>
       <c r="L203" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="M203">
         <v>1.5</v>
@@ -13692,7 +13708,7 @@
         <v>1626</v>
       </c>
       <c r="L204" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="M204">
         <v>2.5</v>
@@ -13733,7 +13749,7 @@
         <v>1626</v>
       </c>
       <c r="L205" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="M205">
         <v>2.5</v>
@@ -13765,7 +13781,7 @@
         <v>1626</v>
       </c>
       <c r="L206" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="M206">
         <v>2.5</v>
@@ -13797,7 +13813,7 @@
         <v>1626</v>
       </c>
       <c r="L207" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="M207">
         <v>2.5</v>
@@ -13838,7 +13854,7 @@
         <v>1623</v>
       </c>
       <c r="L208" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="M208">
         <v>2</v>
@@ -13870,7 +13886,7 @@
         <v>1622</v>
       </c>
       <c r="L209" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="M209">
         <v>1.5</v>
@@ -13911,7 +13927,7 @@
         <v>1621</v>
       </c>
       <c r="L210" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="M210">
         <v>1</v>
@@ -13952,7 +13968,7 @@
         <v>1621</v>
       </c>
       <c r="L211" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="M211">
         <v>1</v>
@@ -13993,7 +14009,7 @@
         <v>1625</v>
       </c>
       <c r="L212" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="M212">
         <v>2</v>
@@ -14034,7 +14050,7 @@
         <v>1625</v>
       </c>
       <c r="L213" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
       <c r="M213">
         <v>2</v>
@@ -14075,7 +14091,7 @@
         <v>1623</v>
       </c>
       <c r="L214" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="M214">
         <v>2</v>
@@ -14116,7 +14132,7 @@
         <v>1622</v>
       </c>
       <c r="L215" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="M215">
         <v>1.5</v>
@@ -14157,7 +14173,7 @@
         <v>1625</v>
       </c>
       <c r="L216" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="M216">
         <v>2</v>
@@ -14198,7 +14214,7 @@
         <v>1625</v>
       </c>
       <c r="L217" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="M217">
         <v>2</v>
@@ -14239,7 +14255,7 @@
         <v>1622</v>
       </c>
       <c r="L218" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="M218">
         <v>1.5</v>
@@ -14280,7 +14296,7 @@
         <v>1622</v>
       </c>
       <c r="L219" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="M219">
         <v>1.5</v>
@@ -14321,7 +14337,7 @@
         <v>1626</v>
       </c>
       <c r="L220" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="M220">
         <v>2.5</v>
@@ -14353,7 +14369,7 @@
         <v>1626</v>
       </c>
       <c r="L221" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
       <c r="M221">
         <v>2.5</v>
@@ -14385,7 +14401,7 @@
         <v>1626</v>
       </c>
       <c r="L222" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="M222">
         <v>2.5</v>
@@ -14417,7 +14433,7 @@
         <v>1622</v>
       </c>
       <c r="L223" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="M223">
         <v>1.5</v>
@@ -14449,7 +14465,7 @@
         <v>1626</v>
       </c>
       <c r="L224" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="M224">
         <v>2.5</v>
@@ -14481,7 +14497,7 @@
         <v>1626</v>
       </c>
       <c r="L225" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="M225">
         <v>2.5</v>
@@ -14513,7 +14529,7 @@
         <v>1626</v>
       </c>
       <c r="L226" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="M226">
         <v>2.5</v>
@@ -14545,7 +14561,7 @@
         <v>1622</v>
       </c>
       <c r="L227" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
       <c r="M227">
         <v>1.5</v>
@@ -14577,7 +14593,7 @@
         <v>1626</v>
       </c>
       <c r="L228" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="M228">
         <v>2.5</v>
@@ -14609,7 +14625,7 @@
         <v>1623</v>
       </c>
       <c r="L229" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="M229">
         <v>2</v>
@@ -14641,7 +14657,7 @@
         <v>1622</v>
       </c>
       <c r="L230" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="M230">
         <v>1.5</v>
@@ -14682,7 +14698,7 @@
         <v>1622</v>
       </c>
       <c r="L231" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
       <c r="M231">
         <v>1.5</v>
@@ -14714,7 +14730,7 @@
         <v>1622</v>
       </c>
       <c r="L232" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="M232">
         <v>1.5</v>
@@ -14755,7 +14771,7 @@
         <v>1625</v>
       </c>
       <c r="L233" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="M233">
         <v>2</v>
@@ -14796,7 +14812,7 @@
         <v>1625</v>
       </c>
       <c r="L234" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="M234">
         <v>2</v>
@@ -14837,7 +14853,7 @@
         <v>1622</v>
       </c>
       <c r="L235" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="M235">
         <v>1.5</v>
@@ -14878,7 +14894,7 @@
         <v>1625</v>
       </c>
       <c r="L236" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="M236">
         <v>2</v>
@@ -14919,7 +14935,7 @@
         <v>1622</v>
       </c>
       <c r="L237" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="M237">
         <v>1.5</v>
@@ -14951,7 +14967,7 @@
         <v>1622</v>
       </c>
       <c r="L238" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="M238">
         <v>1.5</v>
@@ -14992,7 +15008,7 @@
         <v>1625</v>
       </c>
       <c r="L239" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="M239">
         <v>2</v>
@@ -15033,7 +15049,7 @@
         <v>1622</v>
       </c>
       <c r="L240" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="M240">
         <v>1.5</v>
@@ -15074,7 +15090,7 @@
         <v>1622</v>
       </c>
       <c r="L241" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="M241">
         <v>1.5</v>
@@ -15115,7 +15131,7 @@
         <v>1625</v>
       </c>
       <c r="L242" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="M242">
         <v>2</v>
@@ -15156,7 +15172,7 @@
         <v>1622</v>
       </c>
       <c r="L243" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="M243">
         <v>1.5</v>
@@ -15197,7 +15213,7 @@
         <v>1622</v>
       </c>
       <c r="L244" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="M244">
         <v>1.5</v>
@@ -15238,7 +15254,7 @@
         <v>1622</v>
       </c>
       <c r="L245" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="M245">
         <v>1.5</v>
@@ -15279,7 +15295,7 @@
         <v>1625</v>
       </c>
       <c r="L246" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="M246">
         <v>2</v>
@@ -15320,7 +15336,7 @@
         <v>1625</v>
       </c>
       <c r="L247" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
       <c r="M247">
         <v>2</v>
@@ -15361,7 +15377,7 @@
         <v>1625</v>
       </c>
       <c r="L248" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="M248">
         <v>2</v>
@@ -15402,7 +15418,7 @@
         <v>1625</v>
       </c>
       <c r="L249" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="M249">
         <v>2</v>
@@ -15443,7 +15459,7 @@
         <v>1622</v>
       </c>
       <c r="L250" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="M250">
         <v>1.5</v>
@@ -15484,7 +15500,7 @@
         <v>1625</v>
       </c>
       <c r="L251" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="M251">
         <v>2</v>
@@ -15525,7 +15541,7 @@
         <v>1622</v>
       </c>
       <c r="L252" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="M252">
         <v>1.5</v>
@@ -15566,7 +15582,7 @@
         <v>1622</v>
       </c>
       <c r="L253" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="M253">
         <v>1.5</v>
@@ -15607,7 +15623,7 @@
         <v>1623</v>
       </c>
       <c r="L254" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="M254">
         <v>2</v>
@@ -15648,7 +15664,7 @@
         <v>1623</v>
       </c>
       <c r="L255" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="M255">
         <v>2</v>
@@ -15689,7 +15705,7 @@
         <v>1624</v>
       </c>
       <c r="L256" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="M256">
         <v>3</v>
@@ -15771,7 +15787,7 @@
         <v>1625</v>
       </c>
       <c r="L258" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="M258">
         <v>2</v>
@@ -15812,7 +15828,7 @@
         <v>1622</v>
       </c>
       <c r="L259" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="M259">
         <v>1.5</v>
@@ -15853,7 +15869,7 @@
         <v>1622</v>
       </c>
       <c r="L260" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="M260">
         <v>1.5</v>
@@ -15888,7 +15904,7 @@
         <v>1623</v>
       </c>
       <c r="L261" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="M261">
         <v>2</v>
@@ -15929,7 +15945,7 @@
         <v>1625</v>
       </c>
       <c r="L262" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="M262">
         <v>2</v>
@@ -15961,7 +15977,7 @@
         <v>1623</v>
       </c>
       <c r="L263" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="M263">
         <v>2</v>
@@ -15993,7 +16009,7 @@
         <v>1622</v>
       </c>
       <c r="L264" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="M264">
         <v>1.5</v>
@@ -16034,7 +16050,7 @@
         <v>1622</v>
       </c>
       <c r="L265" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="M265">
         <v>1.5</v>
@@ -16075,7 +16091,7 @@
         <v>1625</v>
       </c>
       <c r="L266" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="M266">
         <v>2</v>
@@ -16107,7 +16123,7 @@
         <v>1623</v>
       </c>
       <c r="L267" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="M267">
         <v>2</v>
@@ -16148,7 +16164,7 @@
         <v>1623</v>
       </c>
       <c r="L268" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="M268">
         <v>2</v>
@@ -16156,10 +16172,10 @@
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B269" t="s">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="C269" t="s">
         <v>767</v>
@@ -16218,7 +16234,7 @@
         <v>1621</v>
       </c>
       <c r="L270" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="M270">
         <v>1</v>
@@ -16259,7 +16275,7 @@
         <v>1625</v>
       </c>
       <c r="L271" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="M271">
         <v>2</v>
@@ -16300,7 +16316,7 @@
         <v>1623</v>
       </c>
       <c r="L272" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="M272">
         <v>2</v>
@@ -16341,7 +16357,7 @@
         <v>1625</v>
       </c>
       <c r="L273" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="M273">
         <v>2</v>
@@ -16382,7 +16398,7 @@
         <v>1622</v>
       </c>
       <c r="L274" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="M274">
         <v>1.5</v>
@@ -16423,7 +16439,7 @@
         <v>1624</v>
       </c>
       <c r="L275" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="M275">
         <v>3</v>
@@ -16464,7 +16480,7 @@
         <v>1622</v>
       </c>
       <c r="L276" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="M276">
         <v>1.5</v>
@@ -16505,7 +16521,7 @@
         <v>1622</v>
       </c>
       <c r="L277" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="M277">
         <v>1.5</v>
@@ -16546,7 +16562,7 @@
         <v>1624</v>
       </c>
       <c r="L278" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="M278">
         <v>3</v>
@@ -16587,7 +16603,7 @@
         <v>1625</v>
       </c>
       <c r="L279" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="M279">
         <v>2</v>
@@ -16628,7 +16644,7 @@
         <v>1625</v>
       </c>
       <c r="L280" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="M280">
         <v>2</v>
@@ -16669,7 +16685,7 @@
         <v>1622</v>
       </c>
       <c r="L281" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="M281">
         <v>1.5</v>
@@ -16710,7 +16726,7 @@
         <v>1625</v>
       </c>
       <c r="L282" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="M282">
         <v>2</v>
@@ -16751,7 +16767,7 @@
         <v>1625</v>
       </c>
       <c r="L283" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="M283">
         <v>2</v>
@@ -16792,7 +16808,7 @@
         <v>1622</v>
       </c>
       <c r="L284" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
       <c r="M284">
         <v>1.5</v>
@@ -16824,7 +16840,7 @@
         <v>1624</v>
       </c>
       <c r="L285" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="M285">
         <v>3</v>
@@ -16865,7 +16881,7 @@
         <v>1625</v>
       </c>
       <c r="L286" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="M286">
         <v>2</v>
@@ -16897,7 +16913,7 @@
         <v>1623</v>
       </c>
       <c r="L287" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="M287">
         <v>2</v>
@@ -16938,7 +16954,7 @@
         <v>1625</v>
       </c>
       <c r="L288" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="M288">
         <v>2</v>
@@ -16970,7 +16986,7 @@
         <v>1623</v>
       </c>
       <c r="L289" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
       <c r="M289">
         <v>2</v>
@@ -17002,7 +17018,7 @@
         <v>1624</v>
       </c>
       <c r="L290" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
       <c r="M290">
         <v>3</v>
@@ -17034,7 +17050,7 @@
         <v>1621</v>
       </c>
       <c r="L291" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
       <c r="M291">
         <v>1</v>
@@ -17075,7 +17091,7 @@
         <v>1625</v>
       </c>
       <c r="L292" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
       <c r="M292">
         <v>2</v>
@@ -17107,7 +17123,7 @@
         <v>1623</v>
       </c>
       <c r="L293" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="M293">
         <v>2</v>
@@ -17139,7 +17155,7 @@
         <v>1623</v>
       </c>
       <c r="L294" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="M294">
         <v>2</v>
@@ -17171,7 +17187,7 @@
         <v>1623</v>
       </c>
       <c r="L295" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="M295">
         <v>2</v>
@@ -17203,7 +17219,7 @@
         <v>1623</v>
       </c>
       <c r="L296" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="M296">
         <v>2</v>
@@ -17235,7 +17251,7 @@
         <v>1623</v>
       </c>
       <c r="L297" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="M297">
         <v>2</v>
@@ -17276,7 +17292,7 @@
         <v>1625</v>
       </c>
       <c r="L298" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="M298">
         <v>2</v>
@@ -17308,7 +17324,7 @@
         <v>1623</v>
       </c>
       <c r="L299" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="M299">
         <v>2</v>
@@ -17340,7 +17356,7 @@
         <v>1623</v>
       </c>
       <c r="L300" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
       <c r="M300">
         <v>2</v>
@@ -17372,7 +17388,7 @@
         <v>1624</v>
       </c>
       <c r="L301" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="M301">
         <v>3</v>
@@ -17404,7 +17420,7 @@
         <v>1623</v>
       </c>
       <c r="L302" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="M302">
         <v>2</v>
@@ -17436,7 +17452,7 @@
         <v>1623</v>
       </c>
       <c r="L303" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
       <c r="M303">
         <v>2</v>
@@ -17468,7 +17484,7 @@
         <v>1623</v>
       </c>
       <c r="L304" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
       <c r="M304">
         <v>2</v>
@@ -17500,7 +17516,7 @@
         <v>1623</v>
       </c>
       <c r="L305" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="M305">
         <v>2</v>
@@ -17541,7 +17557,7 @@
         <v>1621</v>
       </c>
       <c r="L306" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="M306">
         <v>1</v>
@@ -17582,7 +17598,7 @@
         <v>1623</v>
       </c>
       <c r="L307" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="M307">
         <v>2</v>
@@ -17614,7 +17630,7 @@
         <v>1624</v>
       </c>
       <c r="L308" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="M308">
         <v>3</v>
@@ -17646,7 +17662,7 @@
         <v>1625</v>
       </c>
       <c r="L309" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
       <c r="M309">
         <v>2</v>
@@ -17678,7 +17694,7 @@
         <v>1624</v>
       </c>
       <c r="L310" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="M310">
         <v>3</v>
@@ -17719,7 +17735,7 @@
         <v>1623</v>
       </c>
       <c r="L311" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="M311">
         <v>2</v>
@@ -17760,7 +17776,7 @@
         <v>1623</v>
       </c>
       <c r="L312" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="M312">
         <v>2</v>
@@ -17792,7 +17808,7 @@
         <v>1624</v>
       </c>
       <c r="L313" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="M313">
         <v>3</v>
@@ -17824,7 +17840,7 @@
         <v>1624</v>
       </c>
       <c r="L314" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="M314">
         <v>3</v>
@@ -17853,7 +17869,7 @@
         <v>1623</v>
       </c>
       <c r="L315" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="M315">
         <v>2</v>
@@ -17894,7 +17910,7 @@
         <v>1621</v>
       </c>
       <c r="L316" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="M316">
         <v>1</v>
@@ -17926,7 +17942,7 @@
         <v>1623</v>
       </c>
       <c r="L317" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="M317">
         <v>2</v>
@@ -17958,7 +17974,7 @@
         <v>1623</v>
       </c>
       <c r="L318" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="M318">
         <v>2</v>
@@ -17990,7 +18006,7 @@
         <v>1621</v>
       </c>
       <c r="L319" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
       <c r="M319">
         <v>1</v>
@@ -18031,7 +18047,7 @@
         <v>1625</v>
       </c>
       <c r="L320" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
       <c r="M320">
         <v>2</v>
@@ -18072,7 +18088,7 @@
         <v>1621</v>
       </c>
       <c r="L321" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="M321">
         <v>1</v>
@@ -18145,7 +18161,7 @@
         <v>1622</v>
       </c>
       <c r="L323" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
       <c r="M323">
         <v>1.5</v>
@@ -18177,7 +18193,7 @@
         <v>1623</v>
       </c>
       <c r="L324" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="M324">
         <v>2</v>
@@ -18209,7 +18225,7 @@
         <v>1622</v>
       </c>
       <c r="L325" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="M325">
         <v>1.5</v>
@@ -18241,7 +18257,7 @@
         <v>1623</v>
       </c>
       <c r="L326" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="M326">
         <v>2</v>
@@ -18282,7 +18298,7 @@
         <v>1625</v>
       </c>
       <c r="L327" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="M327">
         <v>2</v>
@@ -18323,7 +18339,7 @@
         <v>1625</v>
       </c>
       <c r="L328" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="M328">
         <v>2</v>
@@ -18364,7 +18380,7 @@
         <v>1622</v>
       </c>
       <c r="L329" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
       <c r="M329">
         <v>1.5</v>
@@ -18396,7 +18412,7 @@
         <v>1621</v>
       </c>
       <c r="L330" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="M330">
         <v>1</v>
@@ -18428,7 +18444,7 @@
         <v>1622</v>
       </c>
       <c r="L331" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="M331">
         <v>1.5</v>
@@ -18460,7 +18476,7 @@
         <v>1624</v>
       </c>
       <c r="L332" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
       <c r="M332">
         <v>3</v>
@@ -18501,7 +18517,7 @@
         <v>1625</v>
       </c>
       <c r="L333" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="M333">
         <v>2</v>
@@ -18542,7 +18558,7 @@
         <v>1622</v>
       </c>
       <c r="L334" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="M334">
         <v>1.5</v>
@@ -18583,7 +18599,7 @@
         <v>1625</v>
       </c>
       <c r="L335" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="M335">
         <v>2</v>
@@ -18624,7 +18640,7 @@
         <v>1623</v>
       </c>
       <c r="L336" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="M336">
         <v>2</v>
@@ -18665,7 +18681,7 @@
         <v>1622</v>
       </c>
       <c r="L337" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="M337">
         <v>1.5</v>
@@ -18706,7 +18722,7 @@
         <v>1622</v>
       </c>
       <c r="L338" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="M338">
         <v>1.5</v>
@@ -18747,7 +18763,7 @@
         <v>1625</v>
       </c>
       <c r="L339" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="M339">
         <v>2</v>
@@ -18779,7 +18795,7 @@
         <v>1624</v>
       </c>
       <c r="L340" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="M340">
         <v>3</v>
@@ -18811,7 +18827,7 @@
         <v>1623</v>
       </c>
       <c r="L341" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="M341">
         <v>2</v>
@@ -18843,7 +18859,7 @@
         <v>1623</v>
       </c>
       <c r="L342" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="M342">
         <v>2</v>
@@ -18875,7 +18891,7 @@
         <v>1624</v>
       </c>
       <c r="L343" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="M343">
         <v>3</v>
@@ -18907,7 +18923,7 @@
         <v>1624</v>
       </c>
       <c r="L344" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="M344">
         <v>3</v>
@@ -18939,7 +18955,7 @@
         <v>1624</v>
       </c>
       <c r="L345" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="M345">
         <v>3</v>
@@ -18971,7 +18987,7 @@
         <v>1624</v>
       </c>
       <c r="L346" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="M346">
         <v>3</v>
@@ -19003,7 +19019,7 @@
         <v>1624</v>
       </c>
       <c r="L347" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="M347">
         <v>3</v>
@@ -19067,7 +19083,7 @@
         <v>1623</v>
       </c>
       <c r="L349" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="M349">
         <v>2</v>
@@ -19099,7 +19115,7 @@
         <v>1623</v>
       </c>
       <c r="L350" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="M350">
         <v>2</v>
@@ -19131,7 +19147,7 @@
         <v>1624</v>
       </c>
       <c r="L351" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="M351">
         <v>3</v>
@@ -19166,7 +19182,7 @@
         <v>1623</v>
       </c>
       <c r="L352" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="M352">
         <v>2</v>
@@ -19198,7 +19214,7 @@
         <v>1622</v>
       </c>
       <c r="L353" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="M353">
         <v>1.5</v>
@@ -19239,7 +19255,7 @@
         <v>1626</v>
       </c>
       <c r="L354" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="M354">
         <v>2.5</v>
@@ -19280,7 +19296,7 @@
         <v>1623</v>
       </c>
       <c r="L355" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="M355">
         <v>2</v>
@@ -19312,7 +19328,7 @@
         <v>1625</v>
       </c>
       <c r="L356" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="M356">
         <v>2</v>
@@ -19344,7 +19360,7 @@
         <v>1625</v>
       </c>
       <c r="L357" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="M357">
         <v>2</v>
@@ -19376,7 +19392,7 @@
         <v>1626</v>
       </c>
       <c r="L358" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="M358">
         <v>2.5</v>
@@ -19408,7 +19424,7 @@
         <v>1626</v>
       </c>
       <c r="L359" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="M359">
         <v>2.5</v>
@@ -19446,10 +19462,10 @@
         <v>5</v>
       </c>
       <c r="K360" t="s">
-        <v>1622</v>
+        <v>2004</v>
       </c>
       <c r="L360" t="s">
-        <v>1978</v>
+        <v>2008</v>
       </c>
       <c r="M360">
         <v>1.5</v>
@@ -19490,7 +19506,7 @@
         <v>1622</v>
       </c>
       <c r="L361" t="s">
-        <v>1979</v>
+        <v>1975</v>
       </c>
       <c r="M361">
         <v>1.5</v>
@@ -19522,7 +19538,7 @@
         <v>1626</v>
       </c>
       <c r="L362" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="M362">
         <v>2.5</v>
@@ -19554,7 +19570,7 @@
         <v>1626</v>
       </c>
       <c r="L363" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="M363">
         <v>2.5</v>
@@ -19586,7 +19602,7 @@
         <v>1623</v>
       </c>
       <c r="L364" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="M364">
         <v>2</v>
@@ -19618,7 +19634,7 @@
         <v>1622</v>
       </c>
       <c r="L365" t="s">
-        <v>1983</v>
+        <v>1979</v>
       </c>
       <c r="M365">
         <v>1.5</v>
@@ -19650,7 +19666,7 @@
         <v>1623</v>
       </c>
       <c r="L366" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="M366">
         <v>2</v>
@@ -19682,7 +19698,7 @@
         <v>1623</v>
       </c>
       <c r="L367" t="s">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="M367">
         <v>2</v>
@@ -19723,7 +19739,7 @@
         <v>1625</v>
       </c>
       <c r="L368" t="s">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="M368">
         <v>2</v>
@@ -19755,7 +19771,7 @@
         <v>1625</v>
       </c>
       <c r="L369" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="M369">
         <v>2</v>
@@ -19787,7 +19803,7 @@
         <v>1621</v>
       </c>
       <c r="L370" t="s">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="M370">
         <v>1</v>
@@ -19828,7 +19844,7 @@
         <v>1622</v>
       </c>
       <c r="L371" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="M371">
         <v>1.5</v>
@@ -19860,7 +19876,7 @@
         <v>1624</v>
       </c>
       <c r="L372" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="M372">
         <v>3</v>
@@ -19892,7 +19908,7 @@
         <v>1623</v>
       </c>
       <c r="L373" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="M373">
         <v>2</v>
@@ -19924,7 +19940,7 @@
         <v>1623</v>
       </c>
       <c r="L374" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="M374">
         <v>2</v>
@@ -19956,7 +19972,7 @@
         <v>1623</v>
       </c>
       <c r="L375" t="s">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="M375">
         <v>2</v>
@@ -19997,7 +20013,7 @@
         <v>1622</v>
       </c>
       <c r="L376" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="M376">
         <v>1.5</v>
@@ -20038,7 +20054,7 @@
         <v>1621</v>
       </c>
       <c r="L377" t="s">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="M377">
         <v>1</v>
@@ -20079,7 +20095,7 @@
         <v>1621</v>
       </c>
       <c r="L378" t="s">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="M378">
         <v>1</v>
@@ -20111,7 +20127,7 @@
         <v>1622</v>
       </c>
       <c r="L379" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="M379">
         <v>1.5</v>
@@ -20152,7 +20168,7 @@
         <v>1625</v>
       </c>
       <c r="L380" t="s">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="M380">
         <v>2</v>
@@ -20193,7 +20209,7 @@
         <v>1622</v>
       </c>
       <c r="L381" t="s">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="M381">
         <v>1.5</v>
@@ -20225,7 +20241,7 @@
         <v>1622</v>
       </c>
       <c r="L382" t="s">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="M382">
         <v>1.5</v>
@@ -20266,7 +20282,7 @@
         <v>1625</v>
       </c>
       <c r="L383" t="s">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="M383">
         <v>2</v>
@@ -20307,7 +20323,7 @@
         <v>1625</v>
       </c>
       <c r="L384" t="s">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="M384">
         <v>2</v>
@@ -20339,7 +20355,7 @@
         <v>1623</v>
       </c>
       <c r="L385" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="M385">
         <v>2</v>
@@ -20371,7 +20387,7 @@
         <v>1623</v>
       </c>
       <c r="L386" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="M386">
         <v>2</v>
@@ -20403,7 +20419,7 @@
         <v>1623</v>
       </c>
       <c r="L387" t="s">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="M387">
         <v>2</v>
